--- a/BloodstreamAPI/testData/ManualOrderEntry.xlsx
+++ b/BloodstreamAPI/testData/ManualOrderEntry.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B446F25-6F22-4963-B0E7-D720059093B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A5FDC1-A9B5-48E8-B721-76D7E05C0D29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GET_AutoApproval" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>EndPoint</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>QUJW</t>
+  </si>
+  <si>
+    <t>Q0RG</t>
+  </si>
+  <si>
+    <t>Q0RGMzM=</t>
   </si>
 </sst>
 </file>
@@ -492,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +671,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -769,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A4F80E-BE7C-47C7-A96F-6D9123850DA0}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,10 +812,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" s="17"/>
     </row>
@@ -848,10 +854,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
@@ -945,7 +951,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
